--- a/append_lab/GoogleTransExcel.xlsx
+++ b/append_lab/GoogleTransExcel.xlsx
@@ -33,59 +33,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The “What’s New in Python” series of essays takes tours through the most important changes between major Python versions. They are a “must read” for anyone wishing to stay up-to-date after a new release.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>This article explains the new features in Python 3.6, compared to 3.5. Python 3.6 was released on December 23, 2016. For full details, see the changelog.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>PEP 498, formatted string literals.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PEP 515, underscores in numeric literals.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PEP 526, syntax for variable annotations.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PEP 525, asynchronous generators.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PEP 530: asynchronous comprehensions.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The dict type has been reimplemented to use a more compact representation based on a proposal by Raymond Hettinger and similar to the PyPy dict implementation. This resulted in dictionaries using 20% to 25% less memory when compared to Python 3.5.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Customization of class creation has been simplified with the new protocol.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The class attribute definition order is now preserved.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The order of elements in **kwargs now corresponds to the order in which keyword arguments were passed to the function.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DTrace and SystemTap probing support has been added.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The new PYTHONMALLOC environment variable can now be used to debug the interpreter memory allocation and access errors.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The "What's New in Python" series of essays takes tours through the most important changes between major Python versions. They are a "must read" for anyone wishing to stay up-to-date after a new release.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>New syntax features:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PEP 498, formatted string literals.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PEP 515, underscores in numeric literals.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PEP 526, syntax for variable annotations.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PEP 525, asynchronous generators.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PEP 530: asynchronous comprehensions.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The dict type has been reimplemented to use a more compact representation based on a proposal by Raymond Hettinger and similar to the PyPy dict implementation. This resulted in dictionaries using 20% to 25% less memory when compared to Python 3.5.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Customization of class creation has been simplified with the new protocol.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The class attribute definition order is now preserved.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The order of elements in **kwargs now corresponds to the order in which keyword arguments were passed to the function.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DTrace and SystemTap probing support has been added.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The new PYTHONMALLOC environment variable can now be used to debug the interpreter memory allocation and access errors.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -496,103 +496,106 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
